--- a/Coverage Survey/Sao Tomé/st_cs_2_cobertura.xlsx
+++ b/Coverage Survey/Sao Tomé/st_cs_2_cobertura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Sao Tomé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AA378E-F850-4C61-BCB2-FA33934DD629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFF228D-7058-4560-AB7F-34B8421516D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Coverage Survey/Sao Tomé/st_cs_2_cobertura.xlsx
+++ b/Coverage Survey/Sao Tomé/st_cs_2_cobertura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Sao Tomé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFF228D-7058-4560-AB7F-34B8421516D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AA378E-F850-4C61-BCB2-FA33934DD629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
